--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Python D1\PythonD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BF73FF-19BB-4D87-A0B7-414A749E70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88D8F8-5FF5-432A-9C1C-3FE24B4E1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABDFA28-669D-4201-9C97-455007E96125}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
   <si>
     <t>Track Name</t>
   </si>
@@ -933,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA0ED1D-E158-4652-A6A2-BE12ACC5304C}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,6 +1889,9 @@
       <c r="D56" t="s">
         <v>20</v>
       </c>
+      <c r="E56">
+        <v>2018</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1903,6 +1906,9 @@
       <c r="D57" t="s">
         <v>111</v>
       </c>
+      <c r="E57">
+        <v>2015</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1917,6 +1923,9 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
+      <c r="E58">
+        <v>2017</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1931,6 +1940,9 @@
       <c r="D59" t="s">
         <v>106</v>
       </c>
+      <c r="E59">
+        <v>2015</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -1945,6 +1957,9 @@
       <c r="D60" t="s">
         <v>20</v>
       </c>
+      <c r="E60">
+        <v>2018</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1959,6 +1974,9 @@
       <c r="D61" t="s">
         <v>28</v>
       </c>
+      <c r="E61">
+        <v>2019</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1973,6 +1991,9 @@
       <c r="D62" t="s">
         <v>20</v>
       </c>
+      <c r="E62">
+        <v>2020</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1987,6 +2008,9 @@
       <c r="D63" t="s">
         <v>7</v>
       </c>
+      <c r="E63">
+        <v>2018</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2001,8 +2025,11 @@
       <c r="D64" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -2015,8 +2042,11 @@
       <c r="D65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -2029,8 +2059,11 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -2043,8 +2076,11 @@
       <c r="D67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -2057,8 +2093,11 @@
       <c r="D68" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2071,8 +2110,11 @@
       <c r="D69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2085,8 +2127,11 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2099,8 +2144,11 @@
       <c r="D71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -2113,8 +2161,11 @@
       <c r="D72" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -2127,8 +2178,11 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -2141,8 +2195,11 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2155,8 +2212,11 @@
       <c r="D75" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -2169,8 +2229,11 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="D77" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -2197,8 +2263,11 @@
       <c r="D78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -2211,265 +2280,322 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
         <v>55</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
         <v>44</v>
       </c>
-      <c r="C82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
         <v>72</v>
       </c>
-      <c r="D83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" t="s">
         <v>55</v>
       </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" t="s">
         <v>6</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" t="s">
         <v>31</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2477,215 +2603,212 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
         <v>31</v>
       </c>
       <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="s">
         <v>6</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C103" t="s">
-        <v>93</v>
-      </c>
       <c r="D103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D104" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E106">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D107" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
         <v>72</v>
-      </c>
-      <c r="D108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>178</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s">
-        <v>93</v>
-      </c>
-      <c r="D109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>179</v>
-      </c>
-      <c r="B110" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C111" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>180</v>
-      </c>
-      <c r="B112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>181</v>
-      </c>
-      <c r="B113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" t="s">
-        <v>20</v>
+      <c r="E110">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Python D1\PythonD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88D8F8-5FF5-432A-9C1C-3FE24B4E1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802060A6-4C80-410A-9CD9-D6B71E94EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABDFA28-669D-4201-9C97-455007E96125}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="191">
   <si>
     <t>Track Name</t>
   </si>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>Year out</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Pop rock</t>
+  </si>
+  <si>
+    <t>Indie pop</t>
+  </si>
+  <si>
+    <t>Country pop</t>
+  </si>
+  <si>
+    <t>Dance pop</t>
+  </si>
+  <si>
+    <t>Soul pop</t>
+  </si>
+  <si>
+    <t>Acoustic pop</t>
+  </si>
+  <si>
+    <t>Folk</t>
   </si>
 </sst>
 </file>
@@ -935,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA0ED1D-E158-4652-A6A2-BE12ACC5304C}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1500,7 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -1493,7 +1517,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1510,7 +1534,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1578,7 +1602,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -1629,7 +1653,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1663,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -1680,7 +1704,7 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1697,7 +1721,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -1714,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -1748,7 +1772,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -1765,7 +1789,7 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1782,7 +1806,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -1816,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1833,7 +1857,7 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1867,7 +1891,7 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
         <v>106</v>
@@ -1884,7 +1908,7 @@
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -1935,7 +1959,7 @@
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
         <v>106</v>
@@ -1952,7 +1976,7 @@
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -1969,7 +1993,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
@@ -2003,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2020,7 +2044,7 @@
         <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
         <v>28</v>
@@ -2037,7 +2061,7 @@
         <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
@@ -2054,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2071,7 +2095,7 @@
         <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2088,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
@@ -2105,7 +2129,7 @@
         <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
@@ -2122,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -2139,7 +2163,7 @@
         <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2156,7 +2180,7 @@
         <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
